--- a/code/city_portion_check.xlsx
+++ b/code/city_portion_check.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BLVD</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -488,7 +488,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -503,7 +503,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>DR</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -518,7 +518,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DR</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -533,7 +533,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LN</t>
+          <t>RD</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -548,7 +548,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LOOP</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -563,7 +563,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>WAY</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -573,67 +573,67 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CNTR</t>
+          <t>CNTR_E</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PZ</t>
+          <t>AVE</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CNTR</t>
+          <t>CNTR_E</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RD</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CNTR</t>
+          <t>CNTR_E</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>WAY</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CNTR</t>
+          <t>CNTR_E_N</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WAY</t>
+          <t>AVE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CNTR_E</t>
+          <t>CNTR_E_NE</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -642,48 +642,48 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CNTR_E</t>
+          <t>CNTR_E_NE_S</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>AVE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CNTR_E</t>
+          <t>CNTR_E_S</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WAY</t>
+          <t>AVE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CNTR_E_N</t>
+          <t>CNTR_E_S</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AVE</t>
+          <t>BLVD</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -693,12 +693,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CNTR_E_NE</t>
+          <t>CNTR_E_S</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AVE</t>
+          <t>WAY</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -708,27 +708,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CNTR_E_NE_S</t>
+          <t>CNTR_E_W</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AVE</t>
+          <t>DR</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CNTR_E_S</t>
+          <t>CNTR_E_W</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AVE</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -738,12 +738,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CNTR_E_S</t>
+          <t>CNTR_E_W</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BLVD</t>
+          <t>WAY</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -753,42 +753,42 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CNTR_E_S</t>
+          <t>CNTR_N</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WAY</t>
+          <t>AVE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CNTR_E_W</t>
+          <t>CNTR_N</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CNTR_E_W</t>
+          <t>CNTR_NE_S</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>AVE</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -798,22 +798,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CNTR_E_W</t>
+          <t>CNTR_N_NE_S</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WAY</t>
+          <t>AVE</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CNTR_N</t>
+          <t>CNTR_N_S</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -822,13 +822,13 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CNTR_NE_S</t>
+          <t>CNTR_SW_W</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -843,27 +843,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CNTR_N_NE_S</t>
+          <t>CNTR_S_SW</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AVE</t>
+          <t>RD</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CNTR_N_S</t>
+          <t>CNTR_S_SW</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AVE</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -873,37 +873,37 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CNTR_S</t>
+          <t>CNTR_S_W</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>RD</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CNTR_S</t>
+          <t>CNTR_S_W</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>WAY</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CNTR_SW</t>
+          <t>CNTR_W</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -918,31 +918,31 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CNTR_S_SW</t>
+          <t>CNTR_W</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CNTR_S_W</t>
+          <t>CNTR_W</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>WAY</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -953,7 +953,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AVE</t>
+          <t>WAY</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -963,46 +963,46 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CNTR_W</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AVE</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CNTR_W</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>BLVD</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CNTR_W</t>
+          <t>E</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>WAY</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AVE</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BLVD</t>
+          <t>DR</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>LN</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DR</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>LN</t>
+          <t>RD</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>RD</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>WAY</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1128,52 +1128,52 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>E_NE</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>BLVD</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>E_NE</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>WAY</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>E_NE</t>
+          <t>E_NE_S</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BLVD</t>
+          <t>AVE</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>E_NE_S</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AVE</t>
+          <t>CIR</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CIR</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>DR</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DR</t>
+          <t>LN</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>LN</t>
+          <t>LOOP</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1283,7 +1283,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>RD</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>WAY</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1308,12 +1308,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>N</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AVE</t>
+          <t>WAY</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BLVD</t>
+          <t>AVE</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CIR</t>
+          <t>BLVD</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>CIR</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DR</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>LN</t>
+          <t>DR</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>PKWY</t>
+          <t>LN</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>PKWY</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RD</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>PZ</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>WAY</t>
+          <t>RD</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1473,7 +1473,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NE_NW</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1482,33 +1482,33 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>NE_S</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>AVE</t>
+          <t>WAY</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NE_S</t>
+          <t>NE_NW</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DR</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1518,7 +1518,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>NW</t>
+          <t>NE_S</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>NW</t>
+          <t>NE_S</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>CIR</t>
+          <t>DR</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>AVE</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DR</t>
+          <t>CIR</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>LN</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>DR</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>RD</t>
+          <t>LN</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>WAY</t>
+          <t>RD</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -1653,57 +1653,57 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NW_SW_W</t>
+          <t>NW</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>AVE</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>N_NE</t>
+          <t>NW</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>AVE</t>
+          <t>WAY</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>N_NE</t>
+          <t>NW_SW_W</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>AVE</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>N_NE</t>
+          <t>NW_W</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>WAY</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -1713,27 +1713,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>N_NE_NW</t>
+          <t>N_NE</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>AVE</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>N_NW</t>
+          <t>N_NE</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>RD</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -1743,12 +1743,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>N_NW</t>
+          <t>N_NE</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>WAY</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -1758,46 +1758,46 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N_NE_NW</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>AVE</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N_NW</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>BLVD</t>
+          <t>RD</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N_NW</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>AVE</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DR</t>
+          <t>BLVD</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -1838,7 +1838,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>LN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>RD</t>
+          <t>DR</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -1883,7 +1883,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>LN</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -1913,7 +1913,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>WAY</t>
+          <t>RD</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -1923,12 +1923,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>AVE</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -1938,12 +1938,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>BLVD</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -1953,12 +1953,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CIR</t>
+          <t>WAY</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -1973,7 +1973,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>AVE</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DR</t>
+          <t>BLVD</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>LN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>CIR</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>RD</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>DR</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>LN</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2078,7 +2078,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>VIEW</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2093,7 +2093,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>WAY</t>
+          <t>RD</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2103,52 +2103,52 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SW_W</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>AVE</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>S_SW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>S_SW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>VIEW</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>S_SW</t>
+          <t>SW</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>SW_W</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2172,52 +2172,52 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S_SW</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>BLVD</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S_SW</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CIR</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S_SW</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CT</t>
+          <t>WAY</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DR</t>
+          <t>AVE</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>LN</t>
+          <t>BLVD</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>CIR</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>CT</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>DR</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -2303,10 +2303,85 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
+          <t>LN</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>PL</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>RD</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>TER</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
           <t>WAY</t>
         </is>
       </c>
-      <c r="C125" t="n">
+      <c r="C130" t="n">
         <v>1</v>
       </c>
     </row>
